--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H2">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I2">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J2">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N2">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O2">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P2">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q2">
-        <v>8.505090111387837</v>
+        <v>28.12860183416889</v>
       </c>
       <c r="R2">
-        <v>8.505090111387837</v>
+        <v>253.15741650752</v>
       </c>
       <c r="S2">
-        <v>0.02900881423295314</v>
+        <v>0.05482520580543745</v>
       </c>
       <c r="T2">
-        <v>0.02900881423295314</v>
+        <v>0.05482520580543745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H3">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I3">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J3">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N3">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P3">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q3">
-        <v>22.44698914834489</v>
+        <v>70.18927833883022</v>
       </c>
       <c r="R3">
-        <v>22.44698914834489</v>
+        <v>631.703505049472</v>
       </c>
       <c r="S3">
-        <v>0.07656127445629113</v>
+        <v>0.1368052935210955</v>
       </c>
       <c r="T3">
-        <v>0.07656127445629113</v>
+        <v>0.1368052935210955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H4">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I4">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J4">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N4">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O4">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P4">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q4">
-        <v>4.044832984779315</v>
+        <v>15.26428418427733</v>
       </c>
       <c r="R4">
-        <v>4.044832984779315</v>
+        <v>137.378557658496</v>
       </c>
       <c r="S4">
-        <v>0.01379595126237152</v>
+        <v>0.02975147953707083</v>
       </c>
       <c r="T4">
-        <v>0.01379595126237152</v>
+        <v>0.02975147953707083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H5">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I5">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J5">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N5">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O5">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P5">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q5">
-        <v>4.897703206488999</v>
+        <v>15.51389436792889</v>
       </c>
       <c r="R5">
-        <v>4.897703206488999</v>
+        <v>139.62504931136</v>
       </c>
       <c r="S5">
-        <v>0.01670488620631377</v>
+        <v>0.03023799250954307</v>
       </c>
       <c r="T5">
-        <v>0.01670488620631377</v>
+        <v>0.03023799250954307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H6">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I6">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J6">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N6">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O6">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P6">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q6">
-        <v>3.22476851896415</v>
+        <v>10.15879029265778</v>
       </c>
       <c r="R6">
-        <v>3.22476851896415</v>
+        <v>91.42911263391998</v>
       </c>
       <c r="S6">
-        <v>0.01099890885173017</v>
+        <v>0.01980040713764467</v>
       </c>
       <c r="T6">
-        <v>0.01099890885173017</v>
+        <v>0.01980040713764467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H7">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I7">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J7">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.9326655377078</v>
+        <v>16.981576</v>
       </c>
       <c r="N7">
-        <v>12.9326655377078</v>
+        <v>50.944728</v>
       </c>
       <c r="O7">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300346</v>
       </c>
       <c r="P7">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300347</v>
       </c>
       <c r="Q7">
-        <v>10.77964598774454</v>
+        <v>43.81373403767466</v>
       </c>
       <c r="R7">
-        <v>10.77964598774454</v>
+        <v>394.323606339072</v>
       </c>
       <c r="S7">
-        <v>0.0367667765843875</v>
+        <v>0.08539695644602906</v>
       </c>
       <c r="T7">
-        <v>0.0367667765843875</v>
+        <v>0.08539695644602906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H8">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I8">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J8">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N8">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O8">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P8">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q8">
-        <v>17.73412814352301</v>
+        <v>19.46072966302889</v>
       </c>
       <c r="R8">
-        <v>17.73412814352301</v>
+        <v>175.14656696726</v>
       </c>
       <c r="S8">
-        <v>0.06048684048744302</v>
+        <v>0.03793073381996147</v>
       </c>
       <c r="T8">
-        <v>0.06048684048744302</v>
+        <v>0.03793073381996148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H9">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I9">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J9">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N9">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P9">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q9">
-        <v>46.80465189428327</v>
+        <v>48.56034363342623</v>
       </c>
       <c r="R9">
-        <v>46.80465189428327</v>
+        <v>437.043092700836</v>
       </c>
       <c r="S9">
-        <v>0.1596393964387696</v>
+        <v>0.09464853067994733</v>
       </c>
       <c r="T9">
-        <v>0.1596393964387696</v>
+        <v>0.09464853067994734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H10">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I10">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J10">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N10">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O10">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P10">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q10">
-        <v>8.433959609102844</v>
+        <v>10.56057139850533</v>
       </c>
       <c r="R10">
-        <v>8.433959609102844</v>
+        <v>95.045142586548</v>
       </c>
       <c r="S10">
-        <v>0.02876620521881475</v>
+        <v>0.02058351509113245</v>
       </c>
       <c r="T10">
-        <v>0.02876620521881475</v>
+        <v>0.02058351509113245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H11">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I11">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J11">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N11">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O11">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P11">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q11">
-        <v>10.21229582935559</v>
+        <v>10.73326381790889</v>
       </c>
       <c r="R11">
-        <v>10.21229582935559</v>
+        <v>96.59937436118001</v>
       </c>
       <c r="S11">
-        <v>0.03483168181946489</v>
+        <v>0.02092010833848462</v>
       </c>
       <c r="T11">
-        <v>0.03483168181946489</v>
+        <v>0.02092010833848462</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H12">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I12">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J12">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N12">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O12">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P12">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q12">
-        <v>6.724027305946708</v>
+        <v>7.028343347967778</v>
       </c>
       <c r="R12">
-        <v>6.724027305946708</v>
+        <v>63.25509013171</v>
       </c>
       <c r="S12">
-        <v>0.0229340379068228</v>
+        <v>0.01369888104625005</v>
       </c>
       <c r="T12">
-        <v>0.0229340379068228</v>
+        <v>0.01369888104625005</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H13">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I13">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J13">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.9326655377078</v>
+        <v>16.981576</v>
       </c>
       <c r="N13">
-        <v>12.9326655377078</v>
+        <v>50.944728</v>
       </c>
       <c r="O13">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300346</v>
       </c>
       <c r="P13">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300347</v>
       </c>
       <c r="Q13">
-        <v>22.4768486617811</v>
+        <v>30.31246411257067</v>
       </c>
       <c r="R13">
-        <v>22.4768486617811</v>
+        <v>272.812177013136</v>
       </c>
       <c r="S13">
-        <v>0.07666311806606049</v>
+        <v>0.0590817522050764</v>
       </c>
       <c r="T13">
-        <v>0.07666311806606049</v>
+        <v>0.05908175220507641</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H14">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I14">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J14">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N14">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O14">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P14">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q14">
-        <v>20.02517944933426</v>
+        <v>0.7153979393711111</v>
       </c>
       <c r="R14">
-        <v>20.02517944933426</v>
+        <v>6.43858145434</v>
       </c>
       <c r="S14">
-        <v>0.06830106477643158</v>
+        <v>0.001394375713732161</v>
       </c>
       <c r="T14">
-        <v>0.06830106477643158</v>
+        <v>0.001394375713732162</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H15">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I15">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J15">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N15">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P15">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q15">
-        <v>52.8512902163145</v>
+        <v>1.785131923213778</v>
       </c>
       <c r="R15">
-        <v>52.8512902163145</v>
+        <v>16.066187308924</v>
       </c>
       <c r="S15">
-        <v>0.1802630236455878</v>
+        <v>0.003479384636927279</v>
       </c>
       <c r="T15">
-        <v>0.1802630236455878</v>
+        <v>0.00347938463692728</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H16">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I16">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J16">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N16">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O16">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P16">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q16">
-        <v>9.52353300223588</v>
+        <v>0.3882182810146667</v>
       </c>
       <c r="R16">
-        <v>9.52353300223588</v>
+        <v>3.493964529132</v>
       </c>
       <c r="S16">
-        <v>0.03248247767926103</v>
+        <v>0.0007566727731275851</v>
       </c>
       <c r="T16">
-        <v>0.03248247767926103</v>
+        <v>0.0007566727731275851</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H17">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I17">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J17">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N17">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O17">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P17">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q17">
-        <v>11.53161040212871</v>
+        <v>0.3945666452911112</v>
       </c>
       <c r="R17">
-        <v>11.53161040212871</v>
+        <v>3.55109980762</v>
       </c>
       <c r="S17">
-        <v>0.03933154611898122</v>
+        <v>0.0007690463130580756</v>
       </c>
       <c r="T17">
-        <v>0.03933154611898122</v>
+        <v>0.0007690463130580756</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H18">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I18">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J18">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N18">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O18">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P18">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q18">
-        <v>7.592696541610603</v>
+        <v>0.2583696724322222</v>
       </c>
       <c r="R18">
-        <v>7.592696541610603</v>
+        <v>2.32532705189</v>
       </c>
       <c r="S18">
-        <v>0.02589685948275357</v>
+        <v>0.0005035860135704671</v>
       </c>
       <c r="T18">
-        <v>0.02589685948275357</v>
+        <v>0.0005035860135704671</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06561933333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.196858</v>
+      </c>
+      <c r="I19">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="J19">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.981576</v>
+      </c>
+      <c r="N19">
+        <v>50.944728</v>
+      </c>
+      <c r="O19">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P19">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q19">
+        <v>1.114319696069333</v>
+      </c>
+      <c r="R19">
+        <v>10.028877264624</v>
+      </c>
+      <c r="S19">
+        <v>0.002171910535412462</v>
+      </c>
+      <c r="T19">
+        <v>0.002171910535412462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.660166</v>
+      </c>
+      <c r="H20">
+        <v>1.980498</v>
+      </c>
+      <c r="I20">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J20">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.90224333333333</v>
+      </c>
+      <c r="N20">
+        <v>32.70673</v>
+      </c>
+      <c r="O20">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="P20">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="Q20">
+        <v>7.197290372393334</v>
+      </c>
+      <c r="R20">
+        <v>64.77561335154</v>
+      </c>
+      <c r="S20">
+        <v>0.01402817417780897</v>
+      </c>
+      <c r="T20">
+        <v>0.01402817417780897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.660166</v>
+      </c>
+      <c r="H21">
+        <v>1.980498</v>
+      </c>
+      <c r="I21">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J21">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>27.20435933333333</v>
+      </c>
+      <c r="N21">
+        <v>81.613078</v>
+      </c>
+      <c r="O21">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="P21">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="Q21">
+        <v>17.95939308364933</v>
+      </c>
+      <c r="R21">
+        <v>161.634537752844</v>
+      </c>
+      <c r="S21">
+        <v>0.03500449214492275</v>
+      </c>
+      <c r="T21">
+        <v>0.03500449214492275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.660166</v>
+      </c>
+      <c r="H22">
+        <v>1.980498</v>
+      </c>
+      <c r="I22">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J22">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.916218</v>
+      </c>
+      <c r="N22">
+        <v>17.748654</v>
+      </c>
+      <c r="O22">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="P22">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="Q22">
+        <v>3.905685972188</v>
+      </c>
+      <c r="R22">
+        <v>35.151173749692</v>
+      </c>
+      <c r="S22">
+        <v>0.007612537533824564</v>
+      </c>
+      <c r="T22">
+        <v>0.007612537533824563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.660166</v>
+      </c>
+      <c r="H23">
+        <v>1.980498</v>
+      </c>
+      <c r="I23">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J23">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.012963333333334</v>
+      </c>
+      <c r="N23">
+        <v>18.03889</v>
+      </c>
+      <c r="O23">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="P23">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="Q23">
+        <v>3.969553951913334</v>
+      </c>
+      <c r="R23">
+        <v>35.72598556722001</v>
+      </c>
+      <c r="S23">
+        <v>0.007737022040856316</v>
+      </c>
+      <c r="T23">
+        <v>0.007737022040856315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.660166</v>
+      </c>
+      <c r="H24">
+        <v>1.980498</v>
+      </c>
+      <c r="I24">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J24">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.937401666666666</v>
+      </c>
+      <c r="N24">
+        <v>11.812205</v>
+      </c>
+      <c r="O24">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="P24">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="Q24">
+        <v>2.599338708676667</v>
+      </c>
+      <c r="R24">
+        <v>23.39404837809</v>
+      </c>
+      <c r="S24">
+        <v>0.005066347787259258</v>
+      </c>
+      <c r="T24">
+        <v>0.005066347787259257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.660166</v>
+      </c>
+      <c r="H25">
+        <v>1.980498</v>
+      </c>
+      <c r="I25">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J25">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.981576</v>
+      </c>
+      <c r="N25">
+        <v>50.944728</v>
+      </c>
+      <c r="O25">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P25">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q25">
+        <v>11.210659101616</v>
+      </c>
+      <c r="R25">
+        <v>100.895931914544</v>
+      </c>
+      <c r="S25">
+        <v>0.02185059520854276</v>
+      </c>
+      <c r="T25">
+        <v>0.02185059520854276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.180848</v>
+      </c>
+      <c r="I26">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J26">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.90224333333333</v>
+      </c>
+      <c r="N26">
+        <v>32.70673</v>
+      </c>
+      <c r="O26">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="P26">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="Q26">
+        <v>0.6572163007822223</v>
+      </c>
+      <c r="R26">
+        <v>5.91494670704</v>
+      </c>
+      <c r="S26">
+        <v>0.00128097440326039</v>
+      </c>
+      <c r="T26">
+        <v>0.001280974403260391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.180848</v>
+      </c>
+      <c r="I27">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J27">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>27.20435933333333</v>
+      </c>
+      <c r="N27">
+        <v>81.613078</v>
+      </c>
+      <c r="O27">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="P27">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="Q27">
+        <v>1.639951325571556</v>
+      </c>
+      <c r="R27">
+        <v>14.759561930144</v>
+      </c>
+      <c r="S27">
+        <v>0.003196414434866882</v>
+      </c>
+      <c r="T27">
+        <v>0.003196414434866882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.96251935991277</v>
-      </c>
-      <c r="H19">
-        <v>1.96251935991277</v>
-      </c>
-      <c r="I19">
-        <v>0.4328421084685773</v>
-      </c>
-      <c r="J19">
-        <v>0.4328421084685773</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>12.9326655377078</v>
-      </c>
-      <c r="N19">
-        <v>12.9326655377078</v>
-      </c>
-      <c r="O19">
-        <v>0.1999970314160101</v>
-      </c>
-      <c r="P19">
-        <v>0.1999970314160101</v>
-      </c>
-      <c r="Q19">
-        <v>25.38060649302825</v>
-      </c>
-      <c r="R19">
-        <v>25.38060649302825</v>
-      </c>
-      <c r="S19">
-        <v>0.0865671367655621</v>
-      </c>
-      <c r="T19">
-        <v>0.0865671367655621</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.180848</v>
+      </c>
+      <c r="I28">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J28">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.916218</v>
+      </c>
+      <c r="N28">
+        <v>17.748654</v>
+      </c>
+      <c r="O28">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="P28">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="Q28">
+        <v>0.3566453976213333</v>
+      </c>
+      <c r="R28">
+        <v>3.209808578592</v>
+      </c>
+      <c r="S28">
+        <v>0.0006951343489956086</v>
+      </c>
+      <c r="T28">
+        <v>0.0006951343489956086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.180848</v>
+      </c>
+      <c r="I29">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J29">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.012963333333334</v>
+      </c>
+      <c r="N29">
+        <v>18.03889</v>
+      </c>
+      <c r="O29">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="P29">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="Q29">
+        <v>0.3624774643022223</v>
+      </c>
+      <c r="R29">
+        <v>3.26229717872</v>
+      </c>
+      <c r="S29">
+        <v>0.0007065015779085781</v>
+      </c>
+      <c r="T29">
+        <v>0.0007065015779085781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.180848</v>
+      </c>
+      <c r="I30">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J30">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.937401666666666</v>
+      </c>
+      <c r="N30">
+        <v>11.812205</v>
+      </c>
+      <c r="O30">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="P30">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="Q30">
+        <v>0.2373570722044444</v>
+      </c>
+      <c r="R30">
+        <v>2.13621364984</v>
+      </c>
+      <c r="S30">
+        <v>0.0004626305427373632</v>
+      </c>
+      <c r="T30">
+        <v>0.0004626305427373632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.180848</v>
+      </c>
+      <c r="I31">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J31">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.981576</v>
+      </c>
+      <c r="N31">
+        <v>50.944728</v>
+      </c>
+      <c r="O31">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P31">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q31">
+        <v>1.023694685482667</v>
+      </c>
+      <c r="R31">
+        <v>9.213252169344001</v>
+      </c>
+      <c r="S31">
+        <v>0.001995274139269285</v>
+      </c>
+      <c r="T31">
+        <v>0.001995274139269285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H32">
+        <v>6.238909</v>
+      </c>
+      <c r="I32">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J32">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.90224333333333</v>
+      </c>
+      <c r="N32">
+        <v>32.70673</v>
+      </c>
+      <c r="O32">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="P32">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="Q32">
+        <v>22.67270135084111</v>
+      </c>
+      <c r="R32">
+        <v>204.05431215757</v>
+      </c>
+      <c r="S32">
+        <v>0.04419115905772183</v>
+      </c>
+      <c r="T32">
+        <v>0.04419115905772184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H33">
+        <v>6.238909</v>
+      </c>
+      <c r="I33">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J33">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>27.20435933333333</v>
+      </c>
+      <c r="N33">
+        <v>81.613078</v>
+      </c>
+      <c r="O33">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="P33">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="Q33">
+        <v>56.57517409465577</v>
+      </c>
+      <c r="R33">
+        <v>509.176566851902</v>
+      </c>
+      <c r="S33">
+        <v>0.1102701649198272</v>
+      </c>
+      <c r="T33">
+        <v>0.1102701649198272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H34">
+        <v>6.238909</v>
+      </c>
+      <c r="I34">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J34">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.916218</v>
+      </c>
+      <c r="N34">
+        <v>17.748654</v>
+      </c>
+      <c r="O34">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="P34">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="Q34">
+        <v>12.30358190872067</v>
+      </c>
+      <c r="R34">
+        <v>110.732237178486</v>
+      </c>
+      <c r="S34">
+        <v>0.02398080125938823</v>
+      </c>
+      <c r="T34">
+        <v>0.02398080125938823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H35">
+        <v>6.238909</v>
+      </c>
+      <c r="I35">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J35">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.012963333333334</v>
+      </c>
+      <c r="N35">
+        <v>18.03889</v>
+      </c>
+      <c r="O35">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="P35">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="Q35">
+        <v>12.50477701900111</v>
+      </c>
+      <c r="R35">
+        <v>112.54299317101</v>
+      </c>
+      <c r="S35">
+        <v>0.0243729488461472</v>
+      </c>
+      <c r="T35">
+        <v>0.0243729488461472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H36">
+        <v>6.238909</v>
+      </c>
+      <c r="I36">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J36">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.937401666666666</v>
+      </c>
+      <c r="N36">
+        <v>11.812205</v>
+      </c>
+      <c r="O36">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="P36">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="Q36">
+        <v>8.18836356492722</v>
+      </c>
+      <c r="R36">
+        <v>73.69527208434499</v>
+      </c>
+      <c r="S36">
+        <v>0.0159598660574572</v>
+      </c>
+      <c r="T36">
+        <v>0.0159598660574572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H37">
+        <v>6.238909</v>
+      </c>
+      <c r="I37">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J37">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>16.981576</v>
+      </c>
+      <c r="N37">
+        <v>50.944728</v>
+      </c>
+      <c r="O37">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P37">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q37">
+        <v>35.31550244686133</v>
+      </c>
+      <c r="R37">
+        <v>317.839522021752</v>
+      </c>
+      <c r="S37">
+        <v>0.06883312939570466</v>
+      </c>
+      <c r="T37">
+        <v>0.06883312939570467</v>
       </c>
     </row>
   </sheetData>
